--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_4_27.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2389887.677288713</v>
+        <v>2389887.677288706</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500708</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500708</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177808</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177808</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1647482716.269086</v>
+        <v>62480733.92989162</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +667,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C2" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D2" t="n">
         <v>410.3391557398498</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>419.8627394453875</v>
       </c>
       <c r="Y3" t="n">
-        <v>397.8576928085612</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="4">
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F5" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150336</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -1107,7 +1107,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R7" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1235,10 +1235,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R10" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U11" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V11" t="n">
         <v>629.8510241668239</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1672,7 +1672,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V14" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W14" t="n">
         <v>638.3734759809475</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2262,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>165.2127885434264</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963203707</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
         <v>648.751427201877</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E29" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
         <v>404.8896287080119</v>
@@ -2815,7 +2815,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686625962</v>
       </c>
       <c r="C32" t="n">
         <v>449.4745782429939</v>
@@ -3043,7 +3043,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E32" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
         <v>404.8896287080119</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
         <v>347.8590406130752</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138904</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>384.5565566463266</v>
+        <v>383.0228566887534</v>
       </c>
       <c r="C45" t="n">
         <v>361.0999124455193</v>
@@ -4112,7 +4112,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
         <v>2126.146990020859</v>
@@ -4339,22 +4339,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2124.71495243113</v>
+        <v>1929.233537634604</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>2846.826260951187</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>3329.005460464689</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>3894.048524337361</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q2" t="n">
         <v>6931.116362236997</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="3">
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4460,7 +4460,7 @@
         <v>3077.429457927709</v>
       </c>
       <c r="Y3" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="4">
@@ -4470,49 +4470,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J4" t="n">
-        <v>290.4466099967136</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4530,16 +4530,16 @@
         <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="W4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="X4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
     </row>
     <row r="5">
@@ -4561,7 +4561,7 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4576,25 +4576,25 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>2053.555015773446</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3797.935015773446</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M5" t="n">
-        <v>4280.114215286949</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4713,43 +4713,43 @@
         <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>172.7844814097608</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
         <v>351.2038120028187</v>
@@ -4813,13 +4813,13 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N8" t="n">
         <v>4728.273641396618</v>
@@ -4837,7 +4837,7 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
         <v>6118.11576243671</v>
@@ -4883,7 +4883,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4944,49 +4944,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>457.4949902104934</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
         <v>351.2038120028187</v>
@@ -5004,16 +5004,16 @@
         <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.8560479548817</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5044,40 +5044,40 @@
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1830.673957362034</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>2748.266680678617</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>4845.157279159621</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>5755.312162100365</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.179490197778</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>6978.643702470889</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U11" t="n">
         <v>5462.811290515621</v>
@@ -5235,10 +5235,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
         <v>140.96</v>
@@ -5311,13 +5311,13 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
         <v>4826.598134791557</v>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H16" t="n">
         <v>239.3480243885944</v>
@@ -5472,22 +5472,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y16" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="17">
@@ -5524,22 +5524,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L17" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M17" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N17" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O17" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q17" t="n">
         <v>6931.116362236997</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>1339.420289043491</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L20" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M20" t="n">
-        <v>3194.417427023049</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5910,7 +5910,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I22" t="n">
         <v>140.96</v>
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546405</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048431</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351613</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071948</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361345618</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003236068</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K23" t="n">
-        <v>2046.117175397883</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L23" t="n">
-        <v>2963.709898714465</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M23" t="n">
-        <v>3445.889098227968</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N23" t="n">
-        <v>4010.93216210064</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.31216210064</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490198054</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183453</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.71339446428</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922543193</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766819128</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.37407390908</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665981</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430823</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6159,28 +6159,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M25" t="n">
-        <v>166.9289267754419</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="P25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="R25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S25" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T25" t="n">
         <v>140.96</v>
@@ -6208,22 +6208,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
@@ -6235,7 +6235,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
         <v>3681.051378010443</v>
@@ -6262,22 +6262,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="27">
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6414,28 +6414,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6472,22 +6472,22 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q29" t="n">
         <v>6931.116362236997</v>
@@ -6603,22 +6603,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H31" t="n">
         <v>140.96</v>
@@ -6651,28 +6651,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
         <v>1303.215227044376</v>
@@ -6706,10 +6706,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K32" t="n">
-        <v>2124.71495243113</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L32" t="n">
         <v>3681.051378010443</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6897,19 +6897,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
         <v>492.3327682960356</v>
@@ -6943,25 +6943,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L35" t="n">
-        <v>3071.357825473565</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M35" t="n">
-        <v>3553.537024987068</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N35" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O35" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q35" t="n">
         <v>6931.116362236997</v>
@@ -6970,25 +6970,25 @@
         <v>7048</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7077,22 +7077,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H37" t="n">
         <v>140.96</v>
@@ -7125,28 +7125,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="R37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="S37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="T37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
         <v>492.3327682960356</v>
@@ -7180,25 +7180,25 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L38" t="n">
-        <v>2846.826260951187</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M38" t="n">
-        <v>3329.005460464689</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N38" t="n">
-        <v>3894.048524337361</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q38" t="n">
         <v>6931.116362236997</v>
@@ -7207,25 +7207,25 @@
         <v>7048</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7368,22 +7368,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7414,28 +7414,28 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L41" t="n">
-        <v>2631.383042915614</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q41" t="n">
         <v>6931.116362236997</v>
@@ -7551,25 +7551,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
         <v>140.96</v>
@@ -7611,16 +7611,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
         <v>1303.215227044376</v>
@@ -7651,28 +7651,28 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473565</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7684,22 +7684,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="45">
@@ -7760,25 +7760,25 @@
         <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="46">
@@ -7987,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>519.4191429811535</v>
       </c>
       <c r="L2" t="n">
-        <v>29.34358558166878</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>842.6516333931879</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>644.9963936264489</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>835.1386633165828</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>526.9321130577587</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>265.4073538855534</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>419.8640113926995</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
-        <v>176.4768357656695</v>
+        <v>246.5337019566904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L17" t="n">
-        <v>29.34358558166878</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>294.54111633436</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>214.8909222650873</v>
       </c>
       <c r="M20" t="n">
-        <v>459.8234496459305</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>637.4834235501221</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9667,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650855</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10354,13 +10354,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K32" t="n">
         <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>645.1956588512421</v>
+        <v>214.8909222650855</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10591,19 +10591,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>746.2187031047679</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>931.766039788185</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>294.54111633436</v>
@@ -10828,13 +10828,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4191429811533</v>
+        <v>315.9139665186112</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,13 +10843,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>301.799730824009</v>
+        <v>822.5705182964548</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
         <v>294.54111633436</v>
@@ -11299,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>29.34358558166878</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1008.117854979872</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>198.7676812603561</v>
+        <v>130.9590368616381</v>
       </c>
       <c r="U16" t="n">
         <v>150.8146863564251</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24150,10 +24150,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I22" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.38834429270446</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24654,7 +24654,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R28" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S28" t="n">
         <v>316.45975839138</v>
@@ -24694,16 +24694,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24891,7 +24891,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R31" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S31" t="n">
         <v>316.45975839138</v>
@@ -24922,7 +24922,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -25101,7 +25101,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>83.00604195770714</v>
       </c>
       <c r="V34" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25365,7 +25365,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R37" t="n">
-        <v>442.9285853393641</v>
+        <v>608.1413738827905</v>
       </c>
       <c r="S37" t="n">
         <v>316.45975839138</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25608,7 +25608,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25809,10 +25809,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25949,7 +25949,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1.533699957573219</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16723.9852657937</v>
+        <v>1378975.792486732</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33270.4033922273</v>
+        <v>2732806.110844271</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49816.82151866088</v>
+        <v>4086636.429201811</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68649.4192142697</v>
+        <v>5299282.597556977</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87482.01690987851</v>
+        <v>6511928.765912143</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>106314.6146054873</v>
+        <v>7724574.9342673</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>125147.2123010961</v>
+        <v>8937221.102622457</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143979.809996705</v>
+        <v>10149867.27097761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162812.4076923137</v>
+        <v>11362513.43933277</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>181645.0053879225</v>
+        <v>12575159.60768792</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>200477.6030835314</v>
+        <v>13787805.77604308</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219310.2007791402</v>
+        <v>15000451.94439825</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>238142.7984747492</v>
+        <v>16213098.11275342</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256975.3961703583</v>
+        <v>17425744.2811086</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>275807.9938659674</v>
+        <v>18638390.44946378</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850079.5022245017</v>
+        <v>850079.5022245016</v>
       </c>
       <c r="C2" t="n">
         <v>850079.5022245016</v>
       </c>
       <c r="D2" t="n">
-        <v>850079.5022245018</v>
+        <v>850079.5022245015</v>
       </c>
       <c r="E2" t="n">
-        <v>761428.9894323124</v>
+        <v>761428.9894323125</v>
       </c>
       <c r="F2" t="n">
-        <v>761428.9894323121</v>
+        <v>761428.9894323122</v>
       </c>
       <c r="G2" t="n">
         <v>761428.9894323124</v>
       </c>
       <c r="H2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="I2" t="n">
+        <v>761428.9894323123</v>
+      </c>
+      <c r="J2" t="n">
         <v>761428.9894323124</v>
       </c>
-      <c r="I2" t="n">
-        <v>761428.9894323272</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>761428.9894323121</v>
+      </c>
+      <c r="L2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="M2" t="n">
         <v>761428.9894323125</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>761428.9894323122</v>
+      </c>
+      <c r="O2" t="n">
+        <v>761428.9894323127</v>
+      </c>
+      <c r="P2" t="n">
         <v>761428.9894323124</v>
-      </c>
-      <c r="L2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="M2" t="n">
-        <v>761428.9894323124</v>
-      </c>
-      <c r="N2" t="n">
-        <v>761428.9894323125</v>
-      </c>
-      <c r="O2" t="n">
-        <v>761428.9894323122</v>
-      </c>
-      <c r="P2" t="n">
-        <v>761428.9894323121</v>
       </c>
     </row>
     <row r="3">
@@ -26432,22 +26432,22 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309945</v>
       </c>
       <c r="F4" t="n">
         <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
+        <v>26356.19966309946</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26356.19966309948</v>
+      </c>
+      <c r="I4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="H4" t="n">
-        <v>26356.19966309946</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26356.19966310171</v>
-      </c>
       <c r="J4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="K4" t="n">
         <v>26356.19966309947</v>
@@ -26533,43 +26533,43 @@
         <v>576125.9123927511</v>
       </c>
       <c r="D6" t="n">
-        <v>576428.2730626843</v>
+        <v>576428.2730626839</v>
       </c>
       <c r="E6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="F6" t="n">
-        <v>596093.3897692126</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="G6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="H6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="I6" t="n">
-        <v>596093.3897692255</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="J6" t="n">
-        <v>-24130.6102307869</v>
+        <v>-24130.61023078703</v>
       </c>
       <c r="K6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692126</v>
       </c>
       <c r="L6" t="n">
-        <v>596093.389769213</v>
+        <v>596093.3897692128</v>
       </c>
       <c r="M6" t="n">
         <v>596093.389769213</v>
       </c>
       <c r="N6" t="n">
+        <v>596093.3897692128</v>
+      </c>
+      <c r="O6" t="n">
+        <v>596093.3897692133</v>
+      </c>
+      <c r="P6" t="n">
         <v>596093.389769213</v>
-      </c>
-      <c r="O6" t="n">
-        <v>596093.3897692128</v>
-      </c>
-      <c r="P6" t="n">
-        <v>596093.3897692126</v>
       </c>
     </row>
   </sheetData>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27656,7 +27656,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.533699957573106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27696,7 +27696,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27726,7 +27726,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V4" t="n">
-        <v>199.1703102162162</v>
+        <v>350.3353461971999</v>
       </c>
       <c r="W4" t="n">
         <v>226.3728098387097</v>
@@ -27757,10 +27757,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D7" t="n">
-        <v>317.6821588734957</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E7" t="n">
-        <v>400</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F7" t="n">
         <v>274.3828559677419</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -28033,10 +28033,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28079,10 +28079,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C10" t="n">
         <v>272.7252466480447</v>
@@ -28170,7 +28170,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
@@ -28200,7 +28200,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V10" t="n">
-        <v>237.4491465342785</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W10" t="n">
         <v>226.3728098387097</v>
@@ -34831,10 +34831,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.98940395526</v>
+        <v>1266.533429413314</v>
       </c>
       <c r="L2" t="n">
-        <v>956.2049222650858</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,13 +34843,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34992,7 +34992,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35022,7 +35022,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1392.11068005861</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35205,10 +35205,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.14594081794021</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>119.0190951630435</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35305,16 +35305,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1274.04639948992</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>1192.268690568971</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
         <v>919.3483666068121</v>
@@ -35436,7 +35436,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.8861996629213</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -35466,7 +35466,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35496,7 +35496,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>38.27883631806233</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -35536,19 +35536,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1166.97829782486</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834172</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
@@ -35557,13 +35557,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>70.05686619102084</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -36016,10 +36016,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L17" t="n">
-        <v>956.2049222650858</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36034,7 +36034,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
         <v>118.0642805686905</v>
@@ -36247,22 +36247,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>1141.752258948505</v>
       </c>
       <c r="M20" t="n">
-        <v>946.8731461242162</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,13 +36487,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>1384.597709982283</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,7 +36502,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
         <v>844.3104324216301</v>
@@ -36511,7 +36511,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36727,10 +36727,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>1762</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36964,10 +36964,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948503</v>
+        <v>1242.775303202028</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36982,7 +36982,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37198,13 +37198,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K32" t="n">
         <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>1572.05699553466</v>
+        <v>1141.752258948503</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37435,19 +37435,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>1673.080039788185</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>1502.516609356541</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
@@ -37456,7 +37456,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
         <v>118.0642805686905</v>
@@ -37672,13 +37672,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L38" t="n">
-        <v>1446.280479664571</v>
+        <v>1242.775303202028</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37687,13 +37687,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37906,19 +37906,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.661067507426</v>
+        <v>1749.431854979872</v>
       </c>
       <c r="M41" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -37930,7 +37930,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
         <v>118.0642805686905</v>
@@ -38143,19 +38143,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
-        <v>956.2049222650858</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>1495.167551458158</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38167,7 +38167,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
